--- a/biology/Médecine/Arthrodèse/Arthrodèse.xlsx
+++ b/biology/Médecine/Arthrodèse/Arthrodèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthrod%C3%A8se</t>
+          <t>Arthrodèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une arthrodèse est une intervention chirurgicale destinée à bloquer une articulation lésée par l'obtention d'une fusion osseuse (en général de l'extrémité des os) dans le but de corriger une déformation ou d'obtenir l'indolence. C'est souvent une opération non réversible. L'opération inverse, qui consiste à désolidariser des os fusionnés, s'appelle une désarthrodèse.
 Les sites d'arthrodèse les plus fréquents sont :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthrod%C3%A8se</t>
+          <t>Arthrodèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Arthrodèse de la cheville</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arthrodèse de la cheville est souvent effectuée pour réparer cette articulation lorsqu'elle est atteinte d'arthrose, à la suite d'un accident (chirurgie post-traumatique), une usure (parfois liée à une activité professionnelle, ou une maladie dégénérative comme la poliomyélite), ou encore une malformation (pieds bots par exemple).
 Elle implique la plupart du temps au moins l'astragale et le calcaneum. Suivant le nombre de fusions effectuées (et donc de degrés de liberté perdus), on parle d'arthrodèse simple, double ou triple.
